--- a/Assignments/S6/Part-1/BackPropagation.xlsx
+++ b/Assignments/S6/Part-1/BackPropagation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ERA\GitHub\ERA-V1\Assignments\S6\Part-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A0C10E-FF6D-47AC-A40F-8BB9ECAE080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441D6A2-0AED-4847-93D2-D3F923AE1746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="411" activeTab="1" xr2:uid="{9439E314-D218-4DC1-801D-FD5CAA68FFFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="411" xr2:uid="{9439E314-D218-4DC1-801D-FD5CAA68FFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41224,7 +41224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A193E2-7FCF-457A-80F7-5911E68A52AE}">
   <dimension ref="A2:AE100"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -49666,7 +49666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05D4224-8D0B-4358-B5F0-90B78F7EE376}">
   <dimension ref="C1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>

--- a/Assignments/S6/Part-1/BackPropagation.xlsx
+++ b/Assignments/S6/Part-1/BackPropagation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ERA\GitHub\ERA-V1\Assignments\S6\Part-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441D6A2-0AED-4847-93D2-D3F923AE1746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C109EB58-4315-4D91-A9F2-2602CB48E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="411" xr2:uid="{9439E314-D218-4DC1-801D-FD5CAA68FFFB}"/>
   </bookViews>
@@ -11563,9 +11563,9 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2564869" cy="2464842"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2590068" cy="2465803"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73">
@@ -11580,7 +11580,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8297333" y="406400"/>
-              <a:ext cx="2564869" cy="2464842"/>
+              <a:ext cx="2590068" cy="2465803"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11802,6 +11802,49 @@
                             </m:ctrlPr>
                           </m:dPr>
                           <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐸</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
                             <m:r>
                               <a:rPr lang="en-US" sz="1100" i="1">
                                 <a:solidFill>
@@ -11812,44 +11855,51 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝐸</m:t>
+                              <m:t>+</m:t>
                             </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>1+</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐸</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐸</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
                           </m:e>
                         </m:d>
                       </m:num>
@@ -12100,30 +12150,49 @@
                           </a:rPr>
                           <m:t>𝜕</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐸</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:num>
                       <m:den>
                         <m:sSub>
@@ -12372,30 +12441,49 @@
                           </a:rPr>
                           <m:t>𝜕</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐸</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:num>
                       <m:den>
                         <m:sSub>
@@ -12494,30 +12582,49 @@
                           </a:rPr>
                           <m:t>𝜕</m:t>
                         </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐸</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:num>
                       <m:den>
                         <m:r>
@@ -14422,7 +14529,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73">
@@ -14437,7 +14544,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8297333" y="406400"/>
-              <a:ext cx="2564869" cy="2464842"/>
+              <a:ext cx="2590068" cy="2465803"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14469,13 +14576,14 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14487,7 +14595,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14499,7 +14607,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14511,7 +14619,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14523,7 +14631,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14535,7 +14643,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14547,7 +14655,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14559,7 +14667,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14571,7 +14679,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14583,7 +14691,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14595,7 +14703,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14607,19 +14715,67 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐸1+𝐸2)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14631,7 +14787,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14643,7 +14799,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14655,7 +14811,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14672,13 +14828,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14690,7 +14847,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14702,7 +14859,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14714,7 +14871,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14726,7 +14883,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14738,7 +14895,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14750,7 +14907,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14762,7 +14919,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14774,7 +14931,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14786,31 +14943,79 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝜕𝐸1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14822,7 +15027,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14834,7 +15039,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14851,13 +15056,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14869,7 +15075,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14881,7 +15087,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14893,7 +15099,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14905,7 +15111,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14917,7 +15123,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14929,7 +15135,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14941,7 +15147,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14953,7 +15159,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14965,31 +15171,67 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝜕𝐸1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15001,7 +15243,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15013,31 +15255,79 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5 =𝜕𝐸1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5 =</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15049,7 +15339,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15061,7 +15351,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15073,7 +15363,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15085,7 +15375,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15097,7 +15387,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15109,7 +15399,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15121,7 +15411,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15133,7 +15423,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15145,7 +15435,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15157,7 +15447,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15169,7 +15459,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15181,7 +15471,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15193,7 +15483,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15229,7 +15519,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15241,7 +15531,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15253,7 +15543,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15265,7 +15555,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15277,7 +15567,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15289,7 +15579,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15301,7 +15591,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15313,7 +15603,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15325,7 +15615,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15337,7 +15627,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15349,7 +15639,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15366,13 +15656,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15384,7 +15675,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15396,7 +15687,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15408,7 +15699,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15420,7 +15711,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15432,7 +15723,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15444,7 +15735,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15456,7 +15747,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15468,7 +15759,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15480,7 +15771,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15492,7 +15783,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15504,7 +15795,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15516,7 +15807,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15528,7 +15819,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15540,7 +15831,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15552,7 +15843,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15564,7 +15855,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15576,7 +15867,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15588,7 +15879,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15600,7 +15891,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15612,7 +15903,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15624,7 +15915,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15636,7 +15927,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15648,7 +15939,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15660,7 +15951,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15672,7 +15963,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15684,7 +15975,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15696,7 +15987,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15708,7 +15999,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15720,7 +16011,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15732,7 +16023,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15744,7 +16035,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15756,7 +16047,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15768,7 +16059,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15780,7 +16071,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15792,7 +16083,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15804,7 +16095,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15816,7 +16107,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15828,7 +16119,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15840,7 +16131,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15852,7 +16143,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15864,7 +16155,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15876,7 +16167,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15888,7 +16179,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15900,7 +16191,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15912,7 +16203,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15929,13 +16220,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15947,7 +16239,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15959,7 +16251,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15971,7 +16263,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15983,7 +16275,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15995,7 +16287,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16007,7 +16299,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16019,7 +16311,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16031,7 +16323,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16043,7 +16335,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16055,7 +16347,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16067,7 +16359,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16079,7 +16371,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16091,7 +16383,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16103,7 +16395,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16115,7 +16407,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16127,7 +16419,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16139,7 +16431,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16151,7 +16443,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16163,7 +16455,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16175,7 +16467,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16187,7 +16479,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16199,7 +16491,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16211,7 +16503,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16223,7 +16515,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16235,7 +16527,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16247,7 +16539,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16259,7 +16551,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16271,7 +16563,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16283,7 +16575,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16295,7 +16587,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16307,7 +16599,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16319,7 +16611,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16331,7 +16623,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16343,7 +16635,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16355,7 +16647,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16367,7 +16659,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16379,7 +16671,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16396,13 +16688,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16414,7 +16707,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16426,7 +16719,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16438,7 +16731,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16450,7 +16743,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16462,7 +16755,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16474,7 +16767,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16486,7 +16779,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16498,7 +16791,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16510,7 +16803,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16522,7 +16815,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16534,7 +16827,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16546,7 +16839,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16558,7 +16851,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16570,7 +16863,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
